--- a/Black-Box-Optimization/Data/All Data combined.xlsx
+++ b/Black-Box-Optimization/Data/All Data combined.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saleksegid/Desktop/CHEME/Black-Box-Optimization/Black-Box-Optimization/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053B1BA1-FFAB-6B40-AE99-E965124B7B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EA147-50C0-8642-8FB7-84DB1F5E6DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{3FA12D00-9930-FF46-AC03-192B8F9B8FBC}"/>
+    <workbookView xWindow="1720" yWindow="2800" windowWidth="27640" windowHeight="16940" xr2:uid="{3FA12D00-9930-FF46-AC03-192B8F9B8FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7289,7 +7289,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7601,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7473AF33-6535-A043-84D5-39E89A4D61A2}">
   <dimension ref="A1:H1351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1250" workbookViewId="0">
-      <selection activeCell="I1360" sqref="I1360"/>
+    <sheetView tabSelected="1" topLeftCell="A1321" workbookViewId="0">
+      <selection activeCell="K1341" sqref="K1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41310,7 +41321,7 @@
         <v>2384</v>
       </c>
       <c r="H1302" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="2:8" x14ac:dyDescent="0.2">
@@ -41333,7 +41344,7 @@
         <v>2384</v>
       </c>
       <c r="H1303" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="2:8" x14ac:dyDescent="0.2">
@@ -41356,7 +41367,7 @@
         <v>2384</v>
       </c>
       <c r="H1304" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="2:8" x14ac:dyDescent="0.2">
@@ -41379,7 +41390,7 @@
         <v>2384</v>
       </c>
       <c r="H1305" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="2:8" x14ac:dyDescent="0.2">
@@ -41402,7 +41413,7 @@
         <v>2384</v>
       </c>
       <c r="H1306" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="2:8" x14ac:dyDescent="0.2">
@@ -41425,7 +41436,7 @@
         <v>2384</v>
       </c>
       <c r="H1307" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="2:8" x14ac:dyDescent="0.2">
@@ -41448,7 +41459,7 @@
         <v>2384</v>
       </c>
       <c r="H1308" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="2:8" x14ac:dyDescent="0.2">
@@ -41471,7 +41482,7 @@
         <v>2384</v>
       </c>
       <c r="H1309" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="2:8" x14ac:dyDescent="0.2">
@@ -41494,7 +41505,7 @@
         <v>2384</v>
       </c>
       <c r="H1310" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="2:8" x14ac:dyDescent="0.2">
@@ -41517,7 +41528,7 @@
         <v>2384</v>
       </c>
       <c r="H1311" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="2:8" x14ac:dyDescent="0.2">
@@ -41540,7 +41551,7 @@
         <v>2384</v>
       </c>
       <c r="H1312" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="2:8" x14ac:dyDescent="0.2">
@@ -41563,7 +41574,7 @@
         <v>2384</v>
       </c>
       <c r="H1313" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="2:8" x14ac:dyDescent="0.2">
@@ -41586,7 +41597,7 @@
         <v>2384</v>
       </c>
       <c r="H1314" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="2:8" x14ac:dyDescent="0.2">
@@ -41609,7 +41620,7 @@
         <v>2384</v>
       </c>
       <c r="H1315" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="2:8" x14ac:dyDescent="0.2">
@@ -41632,7 +41643,7 @@
         <v>2384</v>
       </c>
       <c r="H1316" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="2:8" x14ac:dyDescent="0.2">
@@ -41655,7 +41666,7 @@
         <v>2384</v>
       </c>
       <c r="H1317" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="2:8" x14ac:dyDescent="0.2">
@@ -41678,7 +41689,7 @@
         <v>2384</v>
       </c>
       <c r="H1318" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="2:8" x14ac:dyDescent="0.2">
@@ -41701,7 +41712,7 @@
         <v>2384</v>
       </c>
       <c r="H1319" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="2:8" x14ac:dyDescent="0.2">
@@ -41724,7 +41735,7 @@
         <v>2384</v>
       </c>
       <c r="H1320" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="2:8" x14ac:dyDescent="0.2">
@@ -41747,7 +41758,7 @@
         <v>2384</v>
       </c>
       <c r="H1321" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="2:8" x14ac:dyDescent="0.2">
@@ -41770,7 +41781,7 @@
         <v>2384</v>
       </c>
       <c r="H1322" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="2:8" x14ac:dyDescent="0.2">
@@ -41793,7 +41804,7 @@
         <v>2384</v>
       </c>
       <c r="H1323" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="2:8" x14ac:dyDescent="0.2">
@@ -41816,7 +41827,7 @@
         <v>2384</v>
       </c>
       <c r="H1324" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="2:8" x14ac:dyDescent="0.2">
@@ -41839,7 +41850,7 @@
         <v>2384</v>
       </c>
       <c r="H1325" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="2:8" x14ac:dyDescent="0.2">
@@ -41862,7 +41873,7 @@
         <v>2384</v>
       </c>
       <c r="H1326" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="2:8" x14ac:dyDescent="0.2">
@@ -41885,7 +41896,7 @@
         <v>2384</v>
       </c>
       <c r="H1327" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="2:8" x14ac:dyDescent="0.2">
@@ -41908,7 +41919,7 @@
         <v>2384</v>
       </c>
       <c r="H1328" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="2:8" x14ac:dyDescent="0.2">
@@ -41931,7 +41942,7 @@
         <v>2384</v>
       </c>
       <c r="H1329" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="2:8" x14ac:dyDescent="0.2">
@@ -41954,7 +41965,7 @@
         <v>2384</v>
       </c>
       <c r="H1330" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="2:8" x14ac:dyDescent="0.2">
@@ -41977,7 +41988,7 @@
         <v>2384</v>
       </c>
       <c r="H1331" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="2:8" x14ac:dyDescent="0.2">
@@ -42000,7 +42011,7 @@
         <v>2384</v>
       </c>
       <c r="H1332" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="2:8" x14ac:dyDescent="0.2">
@@ -42023,7 +42034,7 @@
         <v>2384</v>
       </c>
       <c r="H1333" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="2:8" x14ac:dyDescent="0.2">
@@ -42046,7 +42057,7 @@
         <v>2384</v>
       </c>
       <c r="H1334" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="2:8" x14ac:dyDescent="0.2">
@@ -42069,7 +42080,7 @@
         <v>2384</v>
       </c>
       <c r="H1335" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="2:8" x14ac:dyDescent="0.2">
@@ -42092,7 +42103,7 @@
         <v>2384</v>
       </c>
       <c r="H1336" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="2:8" x14ac:dyDescent="0.2">
@@ -42115,7 +42126,7 @@
         <v>2384</v>
       </c>
       <c r="H1337" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="2:8" x14ac:dyDescent="0.2">
@@ -42138,7 +42149,7 @@
         <v>2384</v>
       </c>
       <c r="H1338" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="2:8" x14ac:dyDescent="0.2">
@@ -42161,7 +42172,7 @@
         <v>2384</v>
       </c>
       <c r="H1339" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="2:8" x14ac:dyDescent="0.2">
@@ -42184,7 +42195,7 @@
         <v>2384</v>
       </c>
       <c r="H1340" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="2:8" x14ac:dyDescent="0.2">
@@ -42207,7 +42218,7 @@
         <v>2384</v>
       </c>
       <c r="H1341" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="2:8" x14ac:dyDescent="0.2">
@@ -42230,7 +42241,7 @@
         <v>2384</v>
       </c>
       <c r="H1342" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="2:8" x14ac:dyDescent="0.2">
@@ -42253,7 +42264,7 @@
         <v>2384</v>
       </c>
       <c r="H1343" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="2:8" x14ac:dyDescent="0.2">
@@ -42276,7 +42287,7 @@
         <v>2384</v>
       </c>
       <c r="H1344" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="2:8" x14ac:dyDescent="0.2">
@@ -42299,7 +42310,7 @@
         <v>2384</v>
       </c>
       <c r="H1345" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="2:8" x14ac:dyDescent="0.2">
@@ -42322,7 +42333,7 @@
         <v>2384</v>
       </c>
       <c r="H1346" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="2:8" x14ac:dyDescent="0.2">
@@ -42345,7 +42356,7 @@
         <v>2384</v>
       </c>
       <c r="H1347" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="2:8" x14ac:dyDescent="0.2">
@@ -42368,7 +42379,7 @@
         <v>2384</v>
       </c>
       <c r="H1348" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="2:8" x14ac:dyDescent="0.2">
@@ -42391,7 +42402,7 @@
         <v>2384</v>
       </c>
       <c r="H1349" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="2:8" x14ac:dyDescent="0.2">
@@ -42414,7 +42425,7 @@
         <v>2384</v>
       </c>
       <c r="H1350" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="2:8" x14ac:dyDescent="0.2">
@@ -42437,10 +42448,15 @@
         <v>2384</v>
       </c>
       <c r="H1351" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I1360">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>